--- a/data/Billing_Payments_FAQ_Data.xlsx
+++ b/data/Billing_Payments_FAQ_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MBA\Internship\Telecom_Provider_Company_GenAI_Chatbot\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{725BC3E1-5ACD-417E-8A2C-4AB20A5D12FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE31342D-928A-453C-BD86-968B5E60FF7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="855" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Question</t>
   </si>
@@ -37,12 +37,6 @@
   </si>
   <si>
     <t>You can pay using credit/debit card, net banking, or UPI.</t>
-  </si>
-  <si>
-    <t>When is my bill due?</t>
-  </si>
-  <si>
-    <t>Your bill is due on the 15th of each month.</t>
   </si>
   <si>
     <t>What happens if I miss a payment?</t>
@@ -392,10 +386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -444,14 +438,6 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
